--- a/Exu/Documentation/FP1-log-G57-6099-350-1201.xlsx
+++ b/Exu/Documentation/FP1-log-G57-6099-350-1201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spenc/350_FINALPROJECT/repo/Exu/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D114C6-E279-2448-8959-03A6D1233D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2D6EED-7642-044A-9D0A-566CCD9E7AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Started Project Report. Filled skeleton for all documentation sections and required files for final submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed documentation for the adder design entity. </t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,9 +757,15 @@
       <c r="C7" s="8">
         <v>43922</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
